--- a/public/assets/assumptions.xlsx
+++ b/public/assets/assumptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favour-Daniel\Desktop\Projects\University\ECO\data\processed\inspect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favour-Daniel\Desktop\Projects\University\ECO\ECO-Website\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DFF4C4-E032-4D98-8705-8BC5FBE1B20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1EB8D5-9CF4-4F90-867C-DF06E1CD270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{4AE48245-1A91-4381-8017-F56714F61CFA}"/>
+    <workbookView xWindow="345" yWindow="3045" windowWidth="28530" windowHeight="16245" xr2:uid="{4AE48245-1A91-4381-8017-F56714F61CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Raft Material</t>
   </si>
   <si>
-    <t>Steel tile with</t>
-  </si>
-  <si>
     <t>Ceilings Material</t>
   </si>
   <si>
@@ -130,13 +127,16 @@
     <t>OSB topper (Office)</t>
   </si>
   <si>
-    <t>screed</t>
-  </si>
-  <si>
     <t>Floors Material</t>
   </si>
   <si>
     <t>70mm</t>
+  </si>
+  <si>
+    <t>Steel Tile</t>
+  </si>
+  <si>
+    <t>Screed</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,46 +1315,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/assumptions.xlsx
+++ b/public/assets/assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favour-Daniel\Desktop\Projects\University\ECO\ECO-Website\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1EB8D5-9CF4-4F90-867C-DF06E1CD270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03EE60C-D3DB-44DA-97EB-A9F46AB444D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3045" windowWidth="28530" windowHeight="16245" xr2:uid="{4AE48245-1A91-4381-8017-F56714F61CFA}"/>
+    <workbookView xWindow="26745" yWindow="6450" windowWidth="28530" windowHeight="16245" xr2:uid="{4AE48245-1A91-4381-8017-F56714F61CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Material</t>
   </si>
@@ -34,109 +34,106 @@
     <t>JJI Engineered Joists</t>
   </si>
   <si>
-    <t>Joisted floors Material</t>
-  </si>
-  <si>
     <t>OSB topper</t>
   </si>
   <si>
-    <t>Precast RC</t>
-  </si>
-  <si>
-    <t>Beams Material</t>
-  </si>
-  <si>
     <t>32/40 (250kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Columns Material</t>
-  </si>
-  <si>
     <t>32/40 (300kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Core structure Material</t>
-  </si>
-  <si>
     <t>32/40 (100kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Floor slab Material</t>
-  </si>
-  <si>
-    <t>Roof Material</t>
-  </si>
-  <si>
-    <t>Secondary beams Material</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>Basement walls Material</t>
-  </si>
-  <si>
     <t>32/40 (125kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Precast  32/40 (250kg/m3 reinforcement)</t>
-  </si>
-  <si>
-    <t>Capping beams Material</t>
-  </si>
-  <si>
     <t>32/40 (200kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Precast  32/40 (300kg/m3 reinforcement)</t>
-  </si>
-  <si>
-    <t>Precast  32/40 (100kg/m3 reinforcement)</t>
-  </si>
-  <si>
-    <t>Lowest floor slab Material</t>
-  </si>
-  <si>
     <t>32/40 (150kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Pile caps Material</t>
-  </si>
-  <si>
-    <t>Piles Material</t>
-  </si>
-  <si>
     <t>32/40 (50kg/m3 reinforcement)</t>
   </si>
   <si>
-    <t>Raft Material</t>
-  </si>
-  <si>
-    <t>Ceilings Material</t>
-  </si>
-  <si>
     <t>18mm acoustic pad</t>
   </si>
   <si>
     <t>Timber Joists</t>
   </si>
   <si>
-    <t>OSB topper (Domestic)</t>
-  </si>
-  <si>
-    <t>OSB topper (Office)</t>
-  </si>
-  <si>
-    <t>Floors Material</t>
-  </si>
-  <si>
-    <t>70mm</t>
-  </si>
-  <si>
     <t>Steel Tile</t>
   </si>
   <si>
     <t>Screed</t>
+  </si>
+  <si>
+    <t>Joisted floors</t>
+  </si>
+  <si>
+    <t>Beams</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Floor slab</t>
+  </si>
+  <si>
+    <t>Core structure</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Secondary beams</t>
+  </si>
+  <si>
+    <t>Basement walls</t>
+  </si>
+  <si>
+    <t>Capping beams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor slab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest floor slab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pile caps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary beams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceilings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joisted floors </t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Precast Concrete</t>
+  </si>
+  <si>
+    <t>Reinforced Concrete</t>
+  </si>
+  <si>
+    <t>70mm thickness</t>
   </si>
 </sst>
 </file>
@@ -460,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -590,6 +587,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -635,10 +669,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1014,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3FF535-D4C9-4D97-ADFA-80E92B475A72}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,325 +1091,220 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>